--- a/领菌/3.27-领菌表-第一批.xlsx
+++ b/领菌/3.27-领菌表-第一批.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\领菌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1222816-138E-4F9C-9B1B-E90E7DF5337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03DCC11-2635-4248-A934-EE5B7E893C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1570" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="175">
   <si>
     <t>FXJWS23M27</t>
   </si>
@@ -209,9 +209,6 @@
     <t>B21-16</t>
   </si>
   <si>
-    <t>B21-17</t>
-  </si>
-  <si>
     <t>B21-18</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>B37-9</t>
   </si>
   <si>
-    <t>B40-11</t>
-  </si>
-  <si>
     <t>B40-12</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>B40-15</t>
   </si>
   <si>
-    <t>B40-16</t>
-  </si>
-  <si>
     <t>B41-1</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
   </si>
   <si>
     <t>B41-4</t>
-  </si>
-  <si>
-    <t>B41-6</t>
   </si>
   <si>
     <t>B56-13</t>
@@ -525,8 +513,85 @@
     <t>1-B11-3</t>
   </si>
   <si>
-    <t>剩余未领青春双歧杆菌</t>
+    <t>1-B21-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B21-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B21-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B21-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B40-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B40-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B40-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B40-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B41-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二批-青春双歧杆菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-B56-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春-52</t>
+  </si>
+  <si>
+    <t>青春-53</t>
+  </si>
+  <si>
+    <t>青春-54</t>
+  </si>
+  <si>
+    <t>青春-55</t>
+  </si>
+  <si>
+    <t>青春-56</t>
+  </si>
+  <si>
+    <t>青春-57</t>
+  </si>
+  <si>
+    <t>青春-58</t>
+  </si>
+  <si>
+    <t>青春-59</t>
+  </si>
+  <si>
+    <t>青春-60</t>
+  </si>
+  <si>
+    <t>青春-61</t>
+  </si>
+  <si>
+    <t>青春-62</t>
   </si>
 </sst>
 </file>
@@ -913,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -926,13 +991,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -955,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -981,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>50</v>
@@ -1007,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>51</v>
@@ -1033,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>51</v>
@@ -1059,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>52</v>
@@ -1085,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1111,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>53</v>
@@ -1137,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1163,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
@@ -1189,10 +1254,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1215,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>55</v>
@@ -1241,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>56</v>
@@ -1267,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>56</v>
@@ -1293,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>57</v>
@@ -1319,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
@@ -1345,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -1371,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
@@ -1397,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>59</v>
@@ -1423,10 +1488,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1449,10 +1514,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1475,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1501,10 +1566,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1527,10 +1592,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1553,10 +1618,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1579,10 +1644,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1605,10 +1670,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1631,10 +1696,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1657,10 +1722,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1683,10 +1748,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1709,10 +1774,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1735,10 +1800,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1761,10 +1826,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1787,10 +1852,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1813,10 +1878,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1839,10 +1904,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1865,10 +1930,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1891,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1917,10 +1982,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1943,10 +2008,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1969,10 +2034,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1995,10 +2060,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2021,10 +2086,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2047,10 +2112,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2073,10 +2138,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2099,10 +2164,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2125,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2151,10 +2216,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2177,10 +2242,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2203,10 +2268,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2229,10 +2294,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2252,7 +2317,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2274,11 +2339,13 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2298,11 +2365,13 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2322,11 +2391,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2346,11 +2417,13 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2370,11 +2443,13 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2394,11 +2469,13 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2418,11 +2495,13 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2442,11 +2521,13 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2466,11 +2547,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C61" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2490,11 +2573,13 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2514,11 +2599,13 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="C63" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2538,11 +2625,13 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
